--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2252,28 +2252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>529.3590574654291</v>
+        <v>590.4224013883916</v>
       </c>
       <c r="AB2" t="n">
-        <v>724.2924160975967</v>
+        <v>807.8419771776004</v>
       </c>
       <c r="AC2" t="n">
-        <v>655.166964456032</v>
+        <v>730.7426726891053</v>
       </c>
       <c r="AD2" t="n">
-        <v>529359.0574654292</v>
+        <v>590422.4013883916</v>
       </c>
       <c r="AE2" t="n">
-        <v>724292.4160975968</v>
+        <v>807841.9771776004</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.444728497848516e-06</v>
+        <v>2.673125971786898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.51793981481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>655166.964456032</v>
+        <v>730742.6726891054</v>
       </c>
     </row>
     <row r="3">
@@ -2358,28 +2358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>321.3953364423642</v>
+        <v>370.1777388970769</v>
       </c>
       <c r="AB3" t="n">
-        <v>439.7472782819867</v>
+        <v>506.4935134482313</v>
       </c>
       <c r="AC3" t="n">
-        <v>397.7784152319346</v>
+        <v>458.1544833928422</v>
       </c>
       <c r="AD3" t="n">
-        <v>321395.3364423642</v>
+        <v>370177.7388970769</v>
       </c>
       <c r="AE3" t="n">
-        <v>439747.2782819867</v>
+        <v>506493.5134482313</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.007410570113919e-06</v>
+        <v>3.714235123763518e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.569444444444446</v>
       </c>
       <c r="AH3" t="n">
-        <v>397778.4152319346</v>
+        <v>458154.4833928422</v>
       </c>
     </row>
     <row r="4">
@@ -2464,28 +2464,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>266.9536820797721</v>
+        <v>315.6507436799131</v>
       </c>
       <c r="AB4" t="n">
-        <v>365.257804986808</v>
+        <v>431.8872730308549</v>
       </c>
       <c r="AC4" t="n">
-        <v>330.3981127214153</v>
+        <v>390.668557850384</v>
       </c>
       <c r="AD4" t="n">
-        <v>266953.6820797721</v>
+        <v>315650.7436799131</v>
       </c>
       <c r="AE4" t="n">
-        <v>365257.804986808</v>
+        <v>431887.2730308549</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.229405821137427e-06</v>
+        <v>4.124984459716959e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.81712962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>330398.1127214152</v>
+        <v>390668.557850384</v>
       </c>
     </row>
     <row r="5">
@@ -2570,28 +2570,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>242.9639929741574</v>
+        <v>279.4655434691744</v>
       </c>
       <c r="AB5" t="n">
-        <v>332.4340540019607</v>
+        <v>382.3770857241557</v>
       </c>
       <c r="AC5" t="n">
-        <v>300.7070144622377</v>
+        <v>345.8835533322518</v>
       </c>
       <c r="AD5" t="n">
-        <v>242963.9929741574</v>
+        <v>279465.5434691744</v>
       </c>
       <c r="AE5" t="n">
-        <v>332434.0540019607</v>
+        <v>382377.0857241557</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.351878715716755e-06</v>
+        <v>4.351591379859714e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.461226851851851</v>
       </c>
       <c r="AH5" t="n">
-        <v>300707.0144622377</v>
+        <v>345883.5533322518</v>
       </c>
     </row>
     <row r="6">
@@ -2676,28 +2676,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>233.4463369451944</v>
+        <v>269.9478874402112</v>
       </c>
       <c r="AB6" t="n">
-        <v>319.4115771337903</v>
+        <v>369.3546088559785</v>
       </c>
       <c r="AC6" t="n">
-        <v>288.9273845092002</v>
+        <v>334.1039233792125</v>
       </c>
       <c r="AD6" t="n">
-        <v>233446.3369451944</v>
+        <v>269947.8874402112</v>
       </c>
       <c r="AE6" t="n">
-        <v>319411.5771337903</v>
+        <v>369354.6088559785</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.391004919173702e-06</v>
+        <v>4.423985100059694e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.354166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>288927.3845092002</v>
+        <v>334103.9233792125</v>
       </c>
     </row>
   </sheetData>
@@ -2973,28 +2973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>404.2261168695503</v>
+        <v>451.2810549089702</v>
       </c>
       <c r="AB2" t="n">
-        <v>553.0800062985919</v>
+        <v>617.4626484414817</v>
       </c>
       <c r="AC2" t="n">
-        <v>500.2948267501178</v>
+        <v>558.5328798884959</v>
       </c>
       <c r="AD2" t="n">
-        <v>404226.1168695503</v>
+        <v>451281.0549089703</v>
       </c>
       <c r="AE2" t="n">
-        <v>553080.006298592</v>
+        <v>617462.6484414818</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.709370433932837e-06</v>
+        <v>3.258323858315198e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.195601851851853</v>
       </c>
       <c r="AH2" t="n">
-        <v>500294.8267501178</v>
+        <v>558532.8798884959</v>
       </c>
     </row>
     <row r="3">
@@ -3079,28 +3079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>268.3114081899717</v>
+        <v>303.6026340966744</v>
       </c>
       <c r="AB3" t="n">
-        <v>367.1155057494317</v>
+        <v>415.4025179739861</v>
       </c>
       <c r="AC3" t="n">
-        <v>332.0785171305535</v>
+        <v>375.7570846796438</v>
       </c>
       <c r="AD3" t="n">
-        <v>268311.4081899717</v>
+        <v>303602.6340966744</v>
       </c>
       <c r="AE3" t="n">
-        <v>367115.5057494317</v>
+        <v>415402.5179739861</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.235986701170894e-06</v>
+        <v>4.262135737622612e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.03125</v>
       </c>
       <c r="AH3" t="n">
-        <v>332078.5171305535</v>
+        <v>375757.0846796438</v>
       </c>
     </row>
     <row r="4">
@@ -3185,28 +3185,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.932684052815</v>
+        <v>257.1385691049457</v>
       </c>
       <c r="AB4" t="n">
-        <v>303.6580892999283</v>
+        <v>351.8283344022603</v>
       </c>
       <c r="AC4" t="n">
-        <v>274.6773874440378</v>
+        <v>318.2503319611822</v>
       </c>
       <c r="AD4" t="n">
-        <v>221932.684052815</v>
+        <v>257138.5691049457</v>
       </c>
       <c r="AE4" t="n">
-        <v>303658.0892999283</v>
+        <v>351828.3344022603</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.440157126455184e-06</v>
+        <v>4.651316078325931e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.440972222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>274677.3874440378</v>
+        <v>318250.3319611822</v>
       </c>
     </row>
     <row r="5">
@@ -3291,28 +3291,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>217.0288788754349</v>
+        <v>252.2347639275656</v>
       </c>
       <c r="AB5" t="n">
-        <v>296.9484867156243</v>
+        <v>345.1187318179562</v>
       </c>
       <c r="AC5" t="n">
-        <v>268.6081399133914</v>
+        <v>312.1810844305358</v>
       </c>
       <c r="AD5" t="n">
-        <v>217028.878875435</v>
+        <v>252234.7639275656</v>
       </c>
       <c r="AE5" t="n">
-        <v>296948.4867156243</v>
+        <v>345118.7318179562</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.468354159643727e-06</v>
+        <v>4.705063975299061e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.36863425925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>268608.1399133914</v>
+        <v>312181.0844305358</v>
       </c>
     </row>
   </sheetData>
@@ -3588,28 +3588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.3507393049836</v>
+        <v>223.1191684151749</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.1320821469273</v>
+        <v>305.281489548504</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.4507044824612</v>
+        <v>276.1458526513467</v>
       </c>
       <c r="AD2" t="n">
-        <v>181350.7393049836</v>
+        <v>223119.1684151749</v>
       </c>
       <c r="AE2" t="n">
-        <v>248132.0821469273</v>
+        <v>305281.489548504</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.57839322746582e-06</v>
+        <v>5.491302801428869e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.802662037037038</v>
       </c>
       <c r="AH2" t="n">
-        <v>224450.7044824612</v>
+        <v>276145.8526513467</v>
       </c>
     </row>
     <row r="3">
@@ -3694,28 +3694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.909195386314</v>
+        <v>220.6776244965053</v>
       </c>
       <c r="AB3" t="n">
-        <v>244.7914540440895</v>
+        <v>301.9408614456663</v>
       </c>
       <c r="AC3" t="n">
-        <v>221.4289012371563</v>
+        <v>273.1240494060417</v>
       </c>
       <c r="AD3" t="n">
-        <v>178909.195386314</v>
+        <v>220677.6244965053</v>
       </c>
       <c r="AE3" t="n">
-        <v>244791.4540440895</v>
+        <v>301940.8614456663</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.609190146408535e-06</v>
+        <v>5.556892179132799e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.721643518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>221428.9012371562</v>
+        <v>273124.0494060417</v>
       </c>
     </row>
   </sheetData>
@@ -3991,28 +3991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.2792821309215</v>
+        <v>293.1664663157259</v>
       </c>
       <c r="AB2" t="n">
-        <v>341.0749112371351</v>
+        <v>401.123292804864</v>
       </c>
       <c r="AC2" t="n">
-        <v>308.5232004104091</v>
+        <v>362.8406487196443</v>
       </c>
       <c r="AD2" t="n">
-        <v>249279.2821309215</v>
+        <v>293166.4663157259</v>
       </c>
       <c r="AE2" t="n">
-        <v>341074.9112371351</v>
+        <v>401123.292804864</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.229517578432047e-06</v>
+        <v>4.526691499035472e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.526041666666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>308523.2004104091</v>
+        <v>362840.6487196443</v>
       </c>
     </row>
     <row r="3">
@@ -4097,28 +4097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.3003672060264</v>
+        <v>224.3010961991986</v>
       </c>
       <c r="AB3" t="n">
-        <v>261.7456019877309</v>
+        <v>306.8986552855782</v>
       </c>
       <c r="AC3" t="n">
-        <v>236.7649690963579</v>
+        <v>277.6086783601814</v>
       </c>
       <c r="AD3" t="n">
-        <v>191300.3672060264</v>
+        <v>224301.0961991986</v>
       </c>
       <c r="AE3" t="n">
-        <v>261745.6019877309</v>
+        <v>306898.6552855782</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.578659033667491e-06</v>
+        <v>5.235569362419104e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.507523148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>236764.9690963579</v>
+        <v>277608.6783601814</v>
       </c>
     </row>
   </sheetData>
@@ -4394,28 +4394,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.8472778648087</v>
+        <v>209.9868322643399</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.0749798764436</v>
+        <v>287.3132478691585</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.5899291655106</v>
+        <v>259.8924747392866</v>
       </c>
       <c r="AD2" t="n">
-        <v>179847.2778648087</v>
+        <v>209986.8322643399</v>
       </c>
       <c r="AE2" t="n">
-        <v>246074.9798764436</v>
+        <v>287313.2478691586</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.585826448653896e-06</v>
+        <v>5.758130427080686e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.045717592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>222589.9291655106</v>
+        <v>259892.4747392866</v>
       </c>
     </row>
   </sheetData>
@@ -4691,28 +4691,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>430.4764794681013</v>
+        <v>489.8626311060605</v>
       </c>
       <c r="AB2" t="n">
-        <v>588.9969104901938</v>
+        <v>670.2516630933543</v>
       </c>
       <c r="AC2" t="n">
-        <v>532.7838720153648</v>
+        <v>606.2837850718412</v>
       </c>
       <c r="AD2" t="n">
-        <v>430476.4794681013</v>
+        <v>489862.6311060605</v>
       </c>
       <c r="AE2" t="n">
-        <v>588996.9104901939</v>
+        <v>670251.6630933543</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.637697067403774e-06</v>
+        <v>3.096498115257207e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.513888888888891</v>
       </c>
       <c r="AH2" t="n">
-        <v>532783.8720153647</v>
+        <v>606283.7850718412</v>
       </c>
     </row>
     <row r="3">
@@ -4797,28 +4797,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>280.5910770742152</v>
+        <v>316.2228575655417</v>
       </c>
       <c r="AB3" t="n">
-        <v>383.9170904576107</v>
+        <v>432.6700644890554</v>
       </c>
       <c r="AC3" t="n">
-        <v>347.2765821753562</v>
+        <v>391.3766407904686</v>
       </c>
       <c r="AD3" t="n">
-        <v>280591.0770742152</v>
+        <v>316222.8575655418</v>
       </c>
       <c r="AE3" t="n">
-        <v>383917.0904576107</v>
+        <v>432670.0644890554</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.179557976972489e-06</v>
+        <v>4.121029036516652e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.14699074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>347276.5821753562</v>
+        <v>391376.6407904685</v>
       </c>
     </row>
     <row r="4">
@@ -4903,28 +4903,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>234.186673338593</v>
+        <v>269.9037051759431</v>
       </c>
       <c r="AB4" t="n">
-        <v>320.4245380485743</v>
+        <v>369.2941567328229</v>
       </c>
       <c r="AC4" t="n">
-        <v>289.8436698559771</v>
+        <v>334.0492407218458</v>
       </c>
       <c r="AD4" t="n">
-        <v>234186.673338593</v>
+        <v>269903.7051759431</v>
       </c>
       <c r="AE4" t="n">
-        <v>320424.5380485744</v>
+        <v>369294.1567328229</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.377856241076381e-06</v>
+        <v>4.495964189835267e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.550925925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>289843.6698559771</v>
+        <v>334049.2407218458</v>
       </c>
     </row>
     <row r="5">
@@ -5009,28 +5009,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>221.2655638632857</v>
+        <v>256.8120035000401</v>
       </c>
       <c r="AB5" t="n">
-        <v>302.745306025349</v>
+        <v>351.3815129345709</v>
       </c>
       <c r="AC5" t="n">
-        <v>273.8517189240848</v>
+        <v>317.8461545072512</v>
       </c>
       <c r="AD5" t="n">
-        <v>221265.5638632857</v>
+        <v>256812.0035000402</v>
       </c>
       <c r="AE5" t="n">
-        <v>302745.306025349</v>
+        <v>351381.512934571</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.446988733910863e-06</v>
+        <v>4.626677395608034e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.36574074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>273851.7189240848</v>
+        <v>317846.1545072512</v>
       </c>
     </row>
   </sheetData>
@@ -5306,28 +5306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.3621257879653</v>
+        <v>214.3898895265676</v>
       </c>
       <c r="AB2" t="n">
-        <v>239.9381969339649</v>
+        <v>293.3377050645125</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.0388321740311</v>
+        <v>265.3419661952967</v>
       </c>
       <c r="AD2" t="n">
-        <v>175362.1257879653</v>
+        <v>214389.8895265676</v>
       </c>
       <c r="AE2" t="n">
-        <v>239938.1969339648</v>
+        <v>293337.7050645125</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.544931231796717e-06</v>
+        <v>5.834424718432929e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.326388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>217038.8321740311</v>
+        <v>265341.9661952967</v>
       </c>
     </row>
   </sheetData>
@@ -5603,28 +5603,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>322.2367033637757</v>
+        <v>367.7326146843831</v>
       </c>
       <c r="AB2" t="n">
-        <v>440.8984736223507</v>
+        <v>503.1479866291564</v>
       </c>
       <c r="AC2" t="n">
-        <v>398.819742104727</v>
+        <v>455.1282489579034</v>
       </c>
       <c r="AD2" t="n">
-        <v>322236.7033637757</v>
+        <v>367732.6146843831</v>
       </c>
       <c r="AE2" t="n">
-        <v>440898.4736223507</v>
+        <v>503147.9866291565</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.946686576449102e-06</v>
+        <v>3.815478786759883e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.31886574074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>398819.742104727</v>
+        <v>455128.2489579034</v>
       </c>
     </row>
     <row r="3">
@@ -5709,28 +5709,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>218.0132334223403</v>
+        <v>263.5090552343994</v>
       </c>
       <c r="AB3" t="n">
-        <v>298.2953240333572</v>
+        <v>360.5447145707579</v>
       </c>
       <c r="AC3" t="n">
-        <v>269.8264369678184</v>
+        <v>326.134833039809</v>
       </c>
       <c r="AD3" t="n">
-        <v>218013.2334223403</v>
+        <v>263509.0552343994</v>
       </c>
       <c r="AE3" t="n">
-        <v>298295.3240333573</v>
+        <v>360544.7145707579</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.434967538187191e-06</v>
+        <v>4.772502723755783e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.652199074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>269826.4369678184</v>
+        <v>326134.833039809</v>
       </c>
     </row>
     <row r="4">
@@ -5815,28 +5815,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>204.6401460665448</v>
+        <v>238.7407667204948</v>
       </c>
       <c r="AB4" t="n">
-        <v>279.9976759341915</v>
+        <v>326.6556495261096</v>
       </c>
       <c r="AC4" t="n">
-        <v>253.2750907223208</v>
+        <v>295.4800927995183</v>
       </c>
       <c r="AD4" t="n">
-        <v>204640.1460665448</v>
+        <v>238740.7667204948</v>
       </c>
       <c r="AE4" t="n">
-        <v>279997.6759341916</v>
+        <v>326655.6495261096</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.521898678113736e-06</v>
+        <v>4.94288655662918e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.423611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>253275.0907223208</v>
+        <v>295480.0927995183</v>
       </c>
     </row>
   </sheetData>
@@ -6112,28 +6112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>367.9808932143084</v>
+        <v>426.1249386897597</v>
       </c>
       <c r="AB2" t="n">
-        <v>503.4876922670761</v>
+        <v>583.0429404208368</v>
       </c>
       <c r="AC2" t="n">
-        <v>455.4355335665199</v>
+        <v>527.3981404929777</v>
       </c>
       <c r="AD2" t="n">
-        <v>367980.8932143084</v>
+        <v>426124.9386897598</v>
       </c>
       <c r="AE2" t="n">
-        <v>503487.6922670761</v>
+        <v>583042.9404208368</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.784181817695281e-06</v>
+        <v>3.430451878371271e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.894675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>455435.5335665199</v>
+        <v>527398.1404929777</v>
       </c>
     </row>
     <row r="3">
@@ -6218,28 +6218,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>244.4591763009567</v>
+        <v>290.9573445104064</v>
       </c>
       <c r="AB3" t="n">
-        <v>334.4798297925194</v>
+        <v>398.1006748912501</v>
       </c>
       <c r="AC3" t="n">
-        <v>302.5575442826104</v>
+        <v>360.1065052174349</v>
       </c>
       <c r="AD3" t="n">
-        <v>244459.1763009567</v>
+        <v>290957.3445104064</v>
       </c>
       <c r="AE3" t="n">
-        <v>334479.8297925193</v>
+        <v>398100.6748912501</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.295178159506689e-06</v>
+        <v>4.412946119273338e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.91550925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>302557.5442826104</v>
+        <v>360106.5052174348</v>
       </c>
     </row>
     <row r="4">
@@ -6324,28 +6324,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>212.8132052151298</v>
+        <v>247.6655856671225</v>
       </c>
       <c r="AB4" t="n">
-        <v>291.1804160312017</v>
+        <v>338.8669805441029</v>
       </c>
       <c r="AC4" t="n">
-        <v>263.3905657995502</v>
+        <v>306.525991523869</v>
       </c>
       <c r="AD4" t="n">
-        <v>212813.2052151298</v>
+        <v>247665.5856671224</v>
       </c>
       <c r="AE4" t="n">
-        <v>291180.4160312017</v>
+        <v>338866.980544103</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.485821422803508e-06</v>
+        <v>4.779496509031371e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.383101851851851</v>
       </c>
       <c r="AH4" t="n">
-        <v>263390.5657995503</v>
+        <v>306525.991523869</v>
       </c>
     </row>
     <row r="5">
@@ -6430,28 +6430,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>213.3964451645077</v>
+        <v>248.2488256165003</v>
       </c>
       <c r="AB5" t="n">
-        <v>291.9784306606707</v>
+        <v>339.6649951735719</v>
       </c>
       <c r="AC5" t="n">
-        <v>264.1124190328035</v>
+        <v>307.2478447571222</v>
       </c>
       <c r="AD5" t="n">
-        <v>213396.4451645077</v>
+        <v>248248.8256165003</v>
       </c>
       <c r="AE5" t="n">
-        <v>291978.4306606707</v>
+        <v>339664.9951735719</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.483408216938991e-06</v>
+        <v>4.774856630680003e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.388888888888888</v>
       </c>
       <c r="AH5" t="n">
-        <v>264112.4190328035</v>
+        <v>307247.8447571222</v>
       </c>
     </row>
   </sheetData>
@@ -6727,28 +6727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>498.964620608888</v>
+        <v>559.343646459715</v>
       </c>
       <c r="AB2" t="n">
-        <v>682.7054066825598</v>
+        <v>765.318653586285</v>
       </c>
       <c r="AC2" t="n">
-        <v>617.5489608518316</v>
+        <v>692.2777154194857</v>
       </c>
       <c r="AD2" t="n">
-        <v>498964.620608888</v>
+        <v>559343.6464597151</v>
       </c>
       <c r="AE2" t="n">
-        <v>682705.4066825598</v>
+        <v>765318.653586285</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.50551026116269e-06</v>
+        <v>2.804651428976132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.17361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>617548.9608518316</v>
+        <v>692277.7154194857</v>
       </c>
     </row>
     <row r="3">
@@ -6833,28 +6833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>307.7693736153877</v>
+        <v>355.9702031722737</v>
       </c>
       <c r="AB3" t="n">
-        <v>421.1036348070635</v>
+        <v>487.0541362773163</v>
       </c>
       <c r="AC3" t="n">
-        <v>380.9140949237401</v>
+        <v>440.570373095782</v>
       </c>
       <c r="AD3" t="n">
-        <v>307769.3736153877</v>
+        <v>355970.2031722737</v>
       </c>
       <c r="AE3" t="n">
-        <v>421103.6348070636</v>
+        <v>487054.1362773163</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.060726394608813e-06</v>
+        <v>3.83897697442786e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.433449074074075</v>
       </c>
       <c r="AH3" t="n">
-        <v>380914.0949237401</v>
+        <v>440570.373095782</v>
       </c>
     </row>
     <row r="4">
@@ -6939,28 +6939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>255.8137032931722</v>
+        <v>304.099784196082</v>
       </c>
       <c r="AB4" t="n">
-        <v>350.0155945496382</v>
+        <v>416.0827406727099</v>
       </c>
       <c r="AC4" t="n">
-        <v>316.6105974558975</v>
+        <v>376.3723878787</v>
       </c>
       <c r="AD4" t="n">
-        <v>255813.7032931722</v>
+        <v>304099.784196082</v>
       </c>
       <c r="AE4" t="n">
-        <v>350015.5945496382</v>
+        <v>416082.7406727099</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.278249572748603e-06</v>
+        <v>4.244206156947038e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.724537037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>316610.5974558975</v>
+        <v>376372.3878787</v>
       </c>
     </row>
     <row r="5">
@@ -7045,28 +7045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>232.693919313023</v>
+        <v>268.887234285114</v>
       </c>
       <c r="AB5" t="n">
-        <v>318.3820861351307</v>
+        <v>367.9033764164597</v>
       </c>
       <c r="AC5" t="n">
-        <v>287.9961466865527</v>
+        <v>332.7911945269038</v>
       </c>
       <c r="AD5" t="n">
-        <v>232693.919313023</v>
+        <v>268887.234285114</v>
       </c>
       <c r="AE5" t="n">
-        <v>318382.0861351307</v>
+        <v>367903.3764164597</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.395454809156852e-06</v>
+        <v>4.462550622777523e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.394675925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>287996.1466865527</v>
+        <v>332791.1945269038</v>
       </c>
     </row>
     <row r="6">
@@ -7151,28 +7151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>229.5811830544017</v>
+        <v>265.7744980264927</v>
       </c>
       <c r="AB6" t="n">
-        <v>314.1231030618554</v>
+        <v>363.6443933431822</v>
       </c>
       <c r="AC6" t="n">
-        <v>284.1436349802691</v>
+        <v>328.9386828206195</v>
       </c>
       <c r="AD6" t="n">
-        <v>229581.1830544017</v>
+        <v>265774.4980264927</v>
       </c>
       <c r="AE6" t="n">
-        <v>314123.1030618554</v>
+        <v>363644.3933431822</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.411653906871814e-06</v>
+        <v>4.492728313176858e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.351273148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>284143.6349802691</v>
+        <v>328938.6828206195</v>
       </c>
     </row>
   </sheetData>
@@ -7448,28 +7448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>269.3916414556639</v>
+        <v>313.8735754121001</v>
       </c>
       <c r="AB2" t="n">
-        <v>368.5935285600801</v>
+        <v>429.4556730037025</v>
       </c>
       <c r="AC2" t="n">
-        <v>333.4154795185718</v>
+        <v>388.4690263170511</v>
       </c>
       <c r="AD2" t="n">
-        <v>269391.641455664</v>
+        <v>313873.5754121001</v>
       </c>
       <c r="AE2" t="n">
-        <v>368593.5285600801</v>
+        <v>429455.6730037025</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.126818258756072e-06</v>
+        <v>4.263201574166452e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.79224537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>333415.4795185718</v>
+        <v>388469.0263170511</v>
       </c>
     </row>
     <row r="3">
@@ -7554,28 +7554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>196.4649933013575</v>
+        <v>229.7411924226636</v>
       </c>
       <c r="AB3" t="n">
-        <v>268.8120712585821</v>
+        <v>314.3420349386263</v>
       </c>
       <c r="AC3" t="n">
-        <v>243.1570244578532</v>
+        <v>284.3416723059938</v>
       </c>
       <c r="AD3" t="n">
-        <v>196464.9933013575</v>
+        <v>229741.1924226636</v>
       </c>
       <c r="AE3" t="n">
-        <v>268812.0712585821</v>
+        <v>314342.0349386263</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.553258606523676e-06</v>
+        <v>5.118000123316695e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.490162037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>243157.0244578532</v>
+        <v>284341.6723059939</v>
       </c>
     </row>
     <row r="4">
@@ -7660,28 +7660,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>196.6449189945021</v>
+        <v>229.9211181158082</v>
       </c>
       <c r="AB4" t="n">
-        <v>269.0582535297038</v>
+        <v>314.5882172097479</v>
       </c>
       <c r="AC4" t="n">
-        <v>243.3797114385381</v>
+        <v>284.5643592866787</v>
       </c>
       <c r="AD4" t="n">
-        <v>196644.9189945021</v>
+        <v>229921.1181158082</v>
       </c>
       <c r="AE4" t="n">
-        <v>269058.2535297038</v>
+        <v>314588.2172097479</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.55938661044674e-06</v>
+        <v>5.130283690971688e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.475694444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>243379.7114385381</v>
+        <v>284564.3592866787</v>
       </c>
     </row>
   </sheetData>
@@ -7957,28 +7957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.2412964825812</v>
+        <v>242.1771330117479</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.6614170387251</v>
+        <v>331.357437487581</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.2074151319683</v>
+        <v>299.7331487169491</v>
       </c>
       <c r="AD2" t="n">
-        <v>210241.2964825812</v>
+        <v>242177.1330117479</v>
       </c>
       <c r="AE2" t="n">
-        <v>287661.4170387251</v>
+        <v>331357.437487581</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.458185836598078e-06</v>
+        <v>5.142678499984842e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.022569444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>260207.4151319684</v>
+        <v>299733.1487169492</v>
       </c>
     </row>
     <row r="3">
@@ -8063,28 +8063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.2606050614366</v>
+        <v>225.7562602343526</v>
       </c>
       <c r="AB3" t="n">
-        <v>250.7452447322356</v>
+        <v>308.8896749157813</v>
       </c>
       <c r="AC3" t="n">
-        <v>226.8144704982252</v>
+        <v>279.4096778712921</v>
       </c>
       <c r="AD3" t="n">
-        <v>183260.6050614366</v>
+        <v>225756.2602343526</v>
       </c>
       <c r="AE3" t="n">
-        <v>250745.2447322356</v>
+        <v>308889.6749157813</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.601363752089775e-06</v>
+        <v>5.442215653242058e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.634837962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>226814.4704982252</v>
+        <v>279409.6778712921</v>
       </c>
     </row>
   </sheetData>
@@ -13869,28 +13869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.8033421403372</v>
+        <v>214.7795420973411</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.8054003786001</v>
+        <v>293.8708449021026</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.109586728511</v>
+        <v>265.8242239150539</v>
       </c>
       <c r="AD2" t="n">
-        <v>173803.3421403372</v>
+        <v>214779.542097341</v>
       </c>
       <c r="AE2" t="n">
-        <v>237805.4003786001</v>
+        <v>293870.8449021027</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.606320932644207e-06</v>
+        <v>5.665765797527227e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.851851851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>215109.586728511</v>
+        <v>265824.2239150539</v>
       </c>
     </row>
   </sheetData>
@@ -14166,28 +14166,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.7031632142473</v>
+        <v>209.752672578409</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.9318429185702</v>
+        <v>286.9928602564719</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.5102775594022</v>
+        <v>259.6026644706878</v>
       </c>
       <c r="AD2" t="n">
-        <v>171703.1632142473</v>
+        <v>209752.672578409</v>
       </c>
       <c r="AE2" t="n">
-        <v>234931.8429185702</v>
+        <v>286992.8602564719</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.442083399759813e-06</v>
+        <v>5.808561213500793e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.847222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>212510.2775594022</v>
+        <v>259602.6644706879</v>
       </c>
     </row>
   </sheetData>
@@ -14463,28 +14463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>344.4826563566488</v>
+        <v>402.013597007845</v>
       </c>
       <c r="AB2" t="n">
-        <v>471.3363679293804</v>
+        <v>550.0527390143195</v>
       </c>
       <c r="AC2" t="n">
-        <v>426.3526864989466</v>
+        <v>497.5564776066599</v>
       </c>
       <c r="AD2" t="n">
-        <v>344482.6563566488</v>
+        <v>402013.597007845</v>
       </c>
       <c r="AE2" t="n">
-        <v>471336.3679293804</v>
+        <v>550052.7390143195</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.863534823502928e-06</v>
+        <v>3.616335044091283e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.599537037037036</v>
       </c>
       <c r="AH2" t="n">
-        <v>426352.6864989466</v>
+        <v>497556.4776066599</v>
       </c>
     </row>
     <row r="3">
@@ -14569,28 +14569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>231.1062869171426</v>
+        <v>277.1139712671881</v>
       </c>
       <c r="AB3" t="n">
-        <v>316.2098174496902</v>
+        <v>379.1595608933544</v>
       </c>
       <c r="AC3" t="n">
-        <v>286.0311962756516</v>
+        <v>342.9731045554777</v>
       </c>
       <c r="AD3" t="n">
-        <v>231106.2869171426</v>
+        <v>277113.9712671881</v>
       </c>
       <c r="AE3" t="n">
-        <v>316209.8174496902</v>
+        <v>379159.5608933544</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.364842419742792e-06</v>
+        <v>4.589161634336396e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.776620370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>286031.1962756516</v>
+        <v>342973.1045554777</v>
       </c>
     </row>
     <row r="4">
@@ -14675,28 +14675,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>208.7998683220704</v>
+        <v>243.28438587951</v>
       </c>
       <c r="AB4" t="n">
-        <v>285.6891914381927</v>
+        <v>332.8724297098012</v>
       </c>
       <c r="AC4" t="n">
-        <v>258.4234159747142</v>
+        <v>301.1035522077862</v>
       </c>
       <c r="AD4" t="n">
-        <v>208799.8683220703</v>
+        <v>243284.38587951</v>
       </c>
       <c r="AE4" t="n">
-        <v>285689.1914381927</v>
+        <v>332872.4297098012</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.500500132802618e-06</v>
+        <v>4.852416034282285e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.409143518518518</v>
       </c>
       <c r="AH4" t="n">
-        <v>258423.4159747142</v>
+        <v>301103.5522077862</v>
       </c>
     </row>
     <row r="5">
@@ -14781,28 +14781,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>208.855559897716</v>
+        <v>243.3400774551557</v>
       </c>
       <c r="AB5" t="n">
-        <v>285.7653911089301</v>
+        <v>332.9486293805386</v>
       </c>
       <c r="AC5" t="n">
-        <v>258.4923432558233</v>
+        <v>301.1724794888953</v>
       </c>
       <c r="AD5" t="n">
-        <v>208855.559897716</v>
+        <v>243340.0774551557</v>
       </c>
       <c r="AE5" t="n">
-        <v>285765.3911089301</v>
+        <v>332948.6293805386</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.507645843290458e-06</v>
+        <v>4.866282844242685e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.391782407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>258492.3432558233</v>
+        <v>301172.4794888953</v>
       </c>
     </row>
   </sheetData>
@@ -15078,28 +15078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>457.9197295160222</v>
+        <v>517.8538830366447</v>
       </c>
       <c r="AB2" t="n">
-        <v>626.5459759165037</v>
+        <v>708.5505288716607</v>
       </c>
       <c r="AC2" t="n">
-        <v>566.749307337832</v>
+        <v>640.9274608530619</v>
       </c>
       <c r="AD2" t="n">
-        <v>457919.7295160223</v>
+        <v>517853.8830366447</v>
       </c>
       <c r="AE2" t="n">
-        <v>626545.9759165037</v>
+        <v>708550.5288716607</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.569810019653702e-06</v>
+        <v>2.94557932226803e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.837962962962964</v>
       </c>
       <c r="AH2" t="n">
-        <v>566749.3073378319</v>
+        <v>640927.4608530619</v>
       </c>
     </row>
     <row r="3">
@@ -15184,28 +15184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>294.9436363130761</v>
+        <v>342.7203669289817</v>
       </c>
       <c r="AB3" t="n">
-        <v>403.5548951984454</v>
+        <v>468.925125787724</v>
       </c>
       <c r="AC3" t="n">
-        <v>365.0401823935576</v>
+        <v>424.1715699230904</v>
       </c>
       <c r="AD3" t="n">
-        <v>294943.6363130761</v>
+        <v>342720.3669289817</v>
       </c>
       <c r="AE3" t="n">
-        <v>403554.8951984454</v>
+        <v>468925.125787724</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.114911856530291e-06</v>
+        <v>3.968404173130049e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.30324074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>365040.1823935576</v>
+        <v>424171.5699230904</v>
       </c>
     </row>
     <row r="4">
@@ -15290,28 +15290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>245.6582519703837</v>
+        <v>293.520233932313</v>
       </c>
       <c r="AB4" t="n">
-        <v>336.1204580229137</v>
+        <v>401.6073332650042</v>
       </c>
       <c r="AC4" t="n">
-        <v>304.0415932573325</v>
+        <v>363.2784930376238</v>
       </c>
       <c r="AD4" t="n">
-        <v>245658.2519703837</v>
+        <v>293520.233932313</v>
       </c>
       <c r="AE4" t="n">
-        <v>336120.4580229137</v>
+        <v>401607.3332650042</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.323942290647871e-06</v>
+        <v>4.360627255383836e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.646412037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>304041.5932573325</v>
+        <v>363278.4930376238</v>
       </c>
     </row>
     <row r="5">
@@ -15396,28 +15396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>224.894061147977</v>
+        <v>260.7693019143326</v>
       </c>
       <c r="AB5" t="n">
-        <v>307.7099760882637</v>
+        <v>356.7960632088566</v>
       </c>
       <c r="AC5" t="n">
-        <v>278.3425678441546</v>
+        <v>322.7439477026224</v>
       </c>
       <c r="AD5" t="n">
-        <v>224894.061147977</v>
+        <v>260769.3019143326</v>
       </c>
       <c r="AE5" t="n">
-        <v>307709.9760882637</v>
+        <v>356796.0632088566</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.430165621570747e-06</v>
+        <v>4.559943888091965e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.354166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>278342.5678441547</v>
+        <v>322743.9477026224</v>
       </c>
     </row>
     <row r="6">
@@ -15502,28 +15502,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>225.7498542178588</v>
+        <v>261.6250949842145</v>
       </c>
       <c r="AB6" t="n">
-        <v>308.880909921401</v>
+        <v>357.9669970419945</v>
       </c>
       <c r="AC6" t="n">
-        <v>279.4017493956737</v>
+        <v>323.8031292541416</v>
       </c>
       <c r="AD6" t="n">
-        <v>225749.8542178588</v>
+        <v>261625.0949842145</v>
       </c>
       <c r="AE6" t="n">
-        <v>308880.9099214011</v>
+        <v>357966.9970419945</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.428083857798892e-06</v>
+        <v>4.556037682727334e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.359953703703703</v>
       </c>
       <c r="AH6" t="n">
-        <v>279401.7493956737</v>
+        <v>323803.1292541416</v>
       </c>
     </row>
   </sheetData>
@@ -15799,28 +15799,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.2342555200047</v>
+        <v>224.8751168814888</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.5504127116173</v>
+        <v>307.6840557070925</v>
       </c>
       <c r="AC2" t="n">
-        <v>232.9701627967701</v>
+        <v>278.319121267783</v>
       </c>
       <c r="AD2" t="n">
-        <v>188234.2555200047</v>
+        <v>224875.1168814888</v>
       </c>
       <c r="AE2" t="n">
-        <v>257550.4127116173</v>
+        <v>307684.0557070925</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.203742732764344e-06</v>
+        <v>5.511393333639723e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.00462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>232970.1627967701</v>
+        <v>278319.121267783</v>
       </c>
     </row>
   </sheetData>
@@ -16096,28 +16096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.982472901225</v>
+        <v>273.0676685980073</v>
       </c>
       <c r="AB2" t="n">
-        <v>314.6721655339372</v>
+        <v>373.623231071106</v>
       </c>
       <c r="AC2" t="n">
-        <v>284.6402957006296</v>
+        <v>337.9651542811771</v>
       </c>
       <c r="AD2" t="n">
-        <v>229982.472901225</v>
+        <v>273067.6685980073</v>
       </c>
       <c r="AE2" t="n">
-        <v>314672.1655339372</v>
+        <v>373623.231071106</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.33746601308424e-06</v>
+        <v>4.813505094660133e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.277199074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>284640.2957006296</v>
+        <v>337965.1542811771</v>
       </c>
     </row>
     <row r="3">
@@ -16202,28 +16202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.5122534380592</v>
+        <v>220.0394352156592</v>
       </c>
       <c r="AB3" t="n">
-        <v>256.5625376106161</v>
+        <v>301.0676627166889</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.0765691089168</v>
+        <v>272.3341875382156</v>
       </c>
       <c r="AD3" t="n">
-        <v>187512.2534380592</v>
+        <v>220039.4352156591</v>
       </c>
       <c r="AE3" t="n">
-        <v>256562.5376106161</v>
+        <v>301067.6627166889</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.589137047565607e-06</v>
+        <v>5.33176709285535e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.571180555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>232076.5691089168</v>
+        <v>272334.1875382157</v>
       </c>
     </row>
   </sheetData>
@@ -16499,28 +16499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>301.1179032909644</v>
+        <v>346.077881260038</v>
       </c>
       <c r="AB2" t="n">
-        <v>412.0027996670269</v>
+        <v>473.5190250185535</v>
       </c>
       <c r="AC2" t="n">
-        <v>372.6818307163662</v>
+        <v>428.3270338589076</v>
       </c>
       <c r="AD2" t="n">
-        <v>301117.9032909644</v>
+        <v>346077.881260038</v>
       </c>
       <c r="AE2" t="n">
-        <v>412002.7996670269</v>
+        <v>473519.0250185535</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.033813356020297e-06</v>
+        <v>4.029358707279124e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.052662037037036</v>
       </c>
       <c r="AH2" t="n">
-        <v>372681.8307163662</v>
+        <v>428327.0338589076</v>
       </c>
     </row>
     <row r="3">
@@ -16605,28 +16605,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>204.8810736578425</v>
+        <v>238.7503364987343</v>
       </c>
       <c r="AB3" t="n">
-        <v>280.32732369358</v>
+        <v>326.6687433188857</v>
       </c>
       <c r="AC3" t="n">
-        <v>253.5732773622169</v>
+        <v>295.4919369390891</v>
       </c>
       <c r="AD3" t="n">
-        <v>204881.0736578425</v>
+        <v>238750.3364987343</v>
       </c>
       <c r="AE3" t="n">
-        <v>280327.32369358</v>
+        <v>326668.7433188857</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.508575452986825e-06</v>
+        <v>4.969949830665907e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.527777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>253573.2773622169</v>
+        <v>295491.9369390891</v>
       </c>
     </row>
     <row r="4">
@@ -16711,28 +16711,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>200.4164835337626</v>
+        <v>234.1151541740622</v>
       </c>
       <c r="AB4" t="n">
-        <v>274.2186745220017</v>
+        <v>320.3266823724605</v>
       </c>
       <c r="AC4" t="n">
-        <v>248.0476290940291</v>
+        <v>289.7551533882503</v>
       </c>
       <c r="AD4" t="n">
-        <v>200416.4835337626</v>
+        <v>234115.1541740622</v>
       </c>
       <c r="AE4" t="n">
-        <v>274218.6745220017</v>
+        <v>320326.6823724605</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.543610948697636e-06</v>
+        <v>5.039361598116601e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.438078703703703</v>
       </c>
       <c r="AH4" t="n">
-        <v>248047.6290940291</v>
+        <v>289755.1533882503</v>
       </c>
     </row>
   </sheetData>
